--- a/center_rev_latest.xlsx
+++ b/center_rev_latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawsif/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawsif/Downloads/csv-to-pdf-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{226ED721-7149-E94A-9C9C-FB11DBC44FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AD39A-7277-EB4F-BABD-0E7870375198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="25220" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="744">
   <si>
     <t>প/ম</t>
   </si>
@@ -2149,9 +2149,6 @@
     <t xml:space="preserve">১৫৭৩ </t>
   </si>
   <si>
-    <t>Hijra</t>
-  </si>
-  <si>
     <t>চনপাড়া পুনর্বাসন কেন্দ্র-২ম অংশ</t>
   </si>
   <si>
@@ -2222,13 +2219,46 @@
   </si>
   <si>
     <t>১৫৩২</t>
+  </si>
+  <si>
+    <t>বরপা সরকারি প্রাথমিক বিদ্যালয়</t>
+  </si>
+  <si>
+    <t>লায়ন মোঃ মোজাম্মেল হক ভূ্ইয়া কারিগরি স্কুল এন্ড কলেজ</t>
+  </si>
+  <si>
+    <t>আদর্শ বিদ্যানিকেতন</t>
+  </si>
+  <si>
+    <t>আউখাব সরকারি প্রাথমিক বিদ্যালয়</t>
+  </si>
+  <si>
+    <t>পূর্বাচল প্রি-ক্যাডেট স্কুল</t>
+  </si>
+  <si>
+    <t>পিতলগঞ্জ পশ্চিম পাড়া মোস্তফা-ই-সুন্নীয়া দাখিল মাদ্রাসা (টিনশেড) ভোটকেন্দ্র্র-২</t>
+  </si>
+  <si>
+    <t>জাঙ্গীর সরকারি প্রাথমিক বিদ্যালয়</t>
+  </si>
+  <si>
+    <t>নাওড়া হাজী ইয়াদ আলী উচ্চ বিদ্যালয়</t>
+  </si>
+  <si>
+    <t>বুরুনা সরকারি প্রাথমিক বিদ্যালয় (পশ্চিম পাশের ভবন) ভোটকেন্দ্র-২</t>
+  </si>
+  <si>
+    <t>পুবগাঁও সরকারি প্রাথমিক বিদ্যালয়</t>
+  </si>
+  <si>
+    <t>নবকিশলয় উচ্চ বিদ্যালয় (৪ তলা ভবন) ভোটকেন্দ্র-২</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2267,8 +2297,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2279,6 +2315,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
         <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -2346,7 +2388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2370,6 +2412,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2590,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H632" sqref="H632:I632"/>
+    <sheetView tabSelected="1" topLeftCell="A610" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3148,10 +3193,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3173,10 +3218,10 @@
         <v>27</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -3436,10 +3481,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
+        <v>733</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>9</v>
@@ -3461,10 +3506,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="7">
-        <v>12</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -3531,15 +3576,15 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>9</v>
@@ -3556,15 +3601,15 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>9</v>
@@ -4061,10 +4106,10 @@
         <v>7</v>
       </c>
       <c r="B59" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>91</v>
+        <v>734</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>9</v>
@@ -4086,10 +4131,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>91</v>
+        <v>734</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>9</v>
@@ -4098,10 +4143,10 @@
         <v>82</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -4111,10 +4156,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>96</v>
+        <v>734</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>9</v>
@@ -4123,17 +4168,17 @@
         <v>82</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B62" s="7">
         <v>26</v>
@@ -4156,15 +4201,15 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B63" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>9</v>
@@ -4173,17 +4218,17 @@
         <v>82</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B64" s="7">
         <v>28</v>
@@ -4208,32 +4253,32 @@
     </row>
     <row r="65" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B65" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>102</v>
+        <v>735</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B66" s="7">
         <v>30</v>
@@ -4258,13 +4303,13 @@
     </row>
     <row r="67" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B67" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>103</v>
@@ -4273,17 +4318,17 @@
         <v>19</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B68" s="7">
         <v>31</v>
@@ -4308,7 +4353,7 @@
     </row>
     <row r="69" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B69" s="7">
         <v>31</v>
@@ -4323,17 +4368,17 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B70" s="7">
         <v>31</v>
@@ -4358,32 +4403,32 @@
     </row>
     <row r="71" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B71" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B72" s="7">
         <v>32</v>
@@ -4408,32 +4453,32 @@
     </row>
     <row r="73" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B73" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B74" s="7">
         <v>33</v>
@@ -4456,9 +4501,9 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B75" s="7">
         <v>33</v>
@@ -4473,17 +4518,17 @@
         <v>27</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B76" s="7">
         <v>33</v>
@@ -4506,34 +4551,34 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B77" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B78" s="7">
         <v>34</v>
@@ -4558,13 +4603,13 @@
     </row>
     <row r="79" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B79" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>103</v>
@@ -4573,17 +4618,17 @@
         <v>40</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B80" s="7">
         <v>35</v>
@@ -4608,7 +4653,7 @@
     </row>
     <row r="81" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B81" s="7">
         <v>35</v>
@@ -4623,17 +4668,17 @@
         <v>40</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B82" s="7">
         <v>35</v>
@@ -4656,34 +4701,34 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B83" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B84" s="7">
         <v>36</v>
@@ -4708,13 +4753,13 @@
     </row>
     <row r="85" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B85" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>103</v>
@@ -4723,17 +4768,17 @@
         <v>45</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B86" s="7">
         <v>37</v>
@@ -4758,7 +4803,7 @@
     </row>
     <row r="87" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B87" s="7">
         <v>37</v>
@@ -4773,17 +4818,17 @@
         <v>45</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
     <row r="88" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B88" s="7">
         <v>37</v>
@@ -4808,25 +4853,25 @@
     </row>
     <row r="89" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B89" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -4848,10 +4893,10 @@
         <v>55</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -4873,17 +4918,17 @@
         <v>55</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B92" s="7">
         <v>38</v>
@@ -4898,10 +4943,10 @@
         <v>55</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -4923,10 +4968,10 @@
         <v>55</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -4948,35 +4993,35 @@
         <v>55</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
     <row r="95" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B95" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -4998,10 +5043,10 @@
         <v>67</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -5023,10 +5068,10 @@
         <v>67</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -5048,10 +5093,10 @@
         <v>67</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -5073,17 +5118,17 @@
         <v>67</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B100" s="7">
         <v>40</v>
@@ -5098,10 +5143,10 @@
         <v>67</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -5123,10 +5168,10 @@
         <v>67</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -5148,10 +5193,10 @@
         <v>67</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -5173,10 +5218,10 @@
         <v>67</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -5198,42 +5243,42 @@
         <v>67</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B105" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>732</v>
+        <v>151</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>733</v>
+        <v>152</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
     <row r="106" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B106" s="7">
         <v>42</v>
@@ -5248,17 +5293,17 @@
         <v>62</v>
       </c>
       <c r="F106" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>733</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
     <row r="107" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B107" s="7">
         <v>42</v>
@@ -5273,17 +5318,17 @@
         <v>62</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>154</v>
+        <v>731</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>155</v>
+        <v>732</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B108" s="7">
         <v>42</v>
@@ -5308,7 +5353,7 @@
     </row>
     <row r="109" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B109" s="7">
         <v>42</v>
@@ -5323,17 +5368,17 @@
         <v>62</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B110" s="7">
         <v>42</v>
@@ -5358,7 +5403,7 @@
     </row>
     <row r="111" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B111" s="7">
         <v>42</v>
@@ -5373,17 +5418,17 @@
         <v>62</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
     <row r="112" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B112" s="7">
         <v>42</v>
@@ -5408,7 +5453,7 @@
     </row>
     <row r="113" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B113" s="7">
         <v>42</v>
@@ -5423,17 +5468,17 @@
         <v>62</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
     <row r="114" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B114" s="7">
         <v>42</v>
@@ -5458,7 +5503,7 @@
     </row>
     <row r="115" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B115" s="7">
         <v>42</v>
@@ -5473,17 +5518,17 @@
         <v>62</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
     <row r="116" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B116" s="7">
         <v>42</v>
@@ -5508,25 +5553,25 @@
     </row>
     <row r="117" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B117" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -5548,17 +5593,17 @@
         <v>82</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B119" s="7">
         <v>43</v>
@@ -5583,7 +5628,7 @@
     </row>
     <row r="120" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B120" s="7">
         <v>43</v>
@@ -5598,17 +5643,17 @@
         <v>82</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B121" s="7">
         <v>43</v>
@@ -5633,7 +5678,7 @@
     </row>
     <row r="122" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B122" s="7">
         <v>43</v>
@@ -5648,17 +5693,17 @@
         <v>82</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B123" s="7">
         <v>43</v>
@@ -5681,27 +5726,27 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B124" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -5723,10 +5768,10 @@
         <v>112</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -5748,10 +5793,10 @@
         <v>112</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -5773,10 +5818,10 @@
         <v>112</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -5798,10 +5843,10 @@
         <v>112</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -5823,10 +5868,10 @@
         <v>112</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
@@ -5848,10 +5893,10 @@
         <v>112</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -5873,17 +5918,17 @@
         <v>112</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
     <row r="132" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B132" s="7">
         <v>44</v>
@@ -5898,10 +5943,10 @@
         <v>112</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -5923,10 +5968,10 @@
         <v>112</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
@@ -5948,10 +5993,10 @@
         <v>112</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -5973,10 +6018,10 @@
         <v>112</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -6023,10 +6068,10 @@
         <v>112</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -6048,10 +6093,10 @@
         <v>112</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -6073,10 +6118,10 @@
         <v>112</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
@@ -6098,42 +6143,42 @@
         <v>112</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B141" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
     <row r="142" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B142" s="7">
         <v>46</v>
@@ -6158,7 +6203,7 @@
     </row>
     <row r="143" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B143" s="7">
         <v>46</v>
@@ -6198,17 +6243,17 @@
         <v>19</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
     <row r="145" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B145" s="7">
         <v>46</v>
@@ -6233,7 +6278,7 @@
     </row>
     <row r="146" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B146" s="7">
         <v>46</v>
@@ -6248,17 +6293,17 @@
         <v>19</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
     <row r="147" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B147" s="7">
         <v>46</v>
@@ -6283,7 +6328,7 @@
     </row>
     <row r="148" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B148" s="7">
         <v>46</v>
@@ -6298,17 +6343,17 @@
         <v>19</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
     <row r="149" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B149" s="7">
         <v>46</v>
@@ -6333,7 +6378,7 @@
     </row>
     <row r="150" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B150" s="7">
         <v>46</v>
@@ -6348,17 +6393,17 @@
         <v>19</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B151" s="7">
         <v>46</v>
@@ -6383,32 +6428,32 @@
     </row>
     <row r="152" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B152" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B153" s="7">
         <v>47</v>
@@ -6433,7 +6478,7 @@
     </row>
     <row r="154" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B154" s="7">
         <v>47</v>
@@ -6448,17 +6493,17 @@
         <v>27</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
     <row r="155" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B155" s="7">
         <v>47</v>
@@ -6483,32 +6528,32 @@
     </row>
     <row r="156" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B156" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B157" s="7">
         <v>48</v>
@@ -6531,34 +6576,34 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B158" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
     <row r="159" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B159" s="7">
         <v>49</v>
@@ -6583,7 +6628,7 @@
     </row>
     <row r="160" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B160" s="7">
         <v>49</v>
@@ -6598,17 +6643,17 @@
         <v>45</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
     <row r="161" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B161" s="7">
         <v>49</v>
@@ -6631,40 +6676,40 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B162" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B163" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>174</v>
@@ -6673,7 +6718,7 @@
         <v>55</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>217</v>
@@ -6686,22 +6731,22 @@
         <v>7</v>
       </c>
       <c r="B164" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
@@ -6723,17 +6768,17 @@
         <v>67</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
     <row r="166" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B166" s="7">
         <v>52</v>
@@ -6748,10 +6793,10 @@
         <v>67</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -6773,42 +6818,42 @@
         <v>67</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B168" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
     <row r="169" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B169" s="7">
         <v>54</v>
@@ -6833,7 +6878,7 @@
     </row>
     <row r="170" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B170" s="7">
         <v>54</v>
@@ -6851,14 +6896,14 @@
         <v>226</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
     <row r="171" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B171" s="7">
         <v>54</v>
@@ -6883,32 +6928,32 @@
     </row>
     <row r="172" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B172" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
     <row r="173" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B173" s="7">
         <v>55</v>
@@ -6933,7 +6978,7 @@
     </row>
     <row r="174" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B174" s="7">
         <v>55</v>
@@ -6948,17 +6993,17 @@
         <v>82</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
     <row r="175" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B175" s="7">
         <v>55</v>
@@ -6983,7 +7028,7 @@
     </row>
     <row r="176" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B176" s="7">
         <v>55</v>
@@ -6998,17 +7043,17 @@
         <v>82</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
     <row r="177" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B177" s="7">
         <v>55</v>
@@ -7033,7 +7078,7 @@
     </row>
     <row r="178" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B178" s="7">
         <v>55</v>
@@ -7048,17 +7093,17 @@
         <v>82</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
     </row>
     <row r="179" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B179" s="7">
         <v>55</v>
@@ -7083,7 +7128,7 @@
     </row>
     <row r="180" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B180" s="7">
         <v>55</v>
@@ -7098,17 +7143,17 @@
         <v>82</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
     <row r="181" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B181" s="7">
         <v>55</v>
@@ -7133,32 +7178,32 @@
     </row>
     <row r="182" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B182" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
     </row>
     <row r="183" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B183" s="7">
         <v>56</v>
@@ -7183,25 +7228,25 @@
     </row>
     <row r="184" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B184" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
@@ -7223,10 +7268,10 @@
         <v>19</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
@@ -7245,13 +7290,13 @@
         <v>241</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
@@ -7273,35 +7318,35 @@
         <v>27</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
     </row>
     <row r="188" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B188" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
@@ -7323,10 +7368,10 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
@@ -7345,13 +7390,13 @@
         <v>241</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
@@ -7373,42 +7418,42 @@
         <v>27</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
     </row>
     <row r="192" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B192" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
     </row>
     <row r="193" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B193" s="7">
         <v>59</v>
@@ -7433,7 +7478,7 @@
     </row>
     <row r="194" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B194" s="7">
         <v>59</v>
@@ -7448,17 +7493,17 @@
         <v>40</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
     </row>
     <row r="195" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B195" s="7">
         <v>59</v>
@@ -7483,7 +7528,7 @@
     </row>
     <row r="196" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B196" s="7">
         <v>59</v>
@@ -7498,17 +7543,17 @@
         <v>40</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
     </row>
     <row r="197" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B197" s="7">
         <v>59</v>
@@ -7533,7 +7578,7 @@
     </row>
     <row r="198" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B198" s="7">
         <v>59</v>
@@ -7548,17 +7593,17 @@
         <v>40</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
     </row>
     <row r="199" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B199" s="7">
         <v>59</v>
@@ -7583,32 +7628,32 @@
     </row>
     <row r="200" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B200" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
     </row>
     <row r="201" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B201" s="7">
         <v>60</v>
@@ -7633,7 +7678,7 @@
     </row>
     <row r="202" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B202" s="7">
         <v>60</v>
@@ -7648,17 +7693,17 @@
         <v>55</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
     </row>
     <row r="203" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B203" s="7">
         <v>60</v>
@@ -7683,32 +7728,32 @@
     </row>
     <row r="204" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B204" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
     </row>
     <row r="205" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B205" s="7">
         <v>61</v>
@@ -7733,7 +7778,7 @@
     </row>
     <row r="206" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B206" s="7">
         <v>61</v>
@@ -7748,17 +7793,17 @@
         <v>45</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
     </row>
     <row r="207" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B207" s="7">
         <v>61</v>
@@ -7783,7 +7828,7 @@
     </row>
     <row r="208" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B208" s="7">
         <v>61</v>
@@ -7798,17 +7843,17 @@
         <v>45</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
     </row>
     <row r="209" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B209" s="7">
         <v>61</v>
@@ -7833,32 +7878,32 @@
     </row>
     <row r="210" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B210" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
     </row>
     <row r="211" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B211" s="7">
         <v>62</v>
@@ -7883,7 +7928,7 @@
     </row>
     <row r="212" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B212" s="7">
         <v>62</v>
@@ -7898,17 +7943,17 @@
         <v>67</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
     </row>
     <row r="213" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B213" s="7">
         <v>62</v>
@@ -7933,7 +7978,7 @@
     </row>
     <row r="214" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B214" s="7">
         <v>62</v>
@@ -7948,17 +7993,17 @@
         <v>67</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
     </row>
     <row r="215" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B215" s="7">
         <v>62</v>
@@ -7983,25 +8028,25 @@
     </row>
     <row r="216" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B216" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
@@ -8023,10 +8068,10 @@
         <v>82</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
@@ -8048,10 +8093,10 @@
         <v>82</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
@@ -8073,17 +8118,17 @@
         <v>82</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
     </row>
     <row r="220" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B220" s="7">
         <v>63</v>
@@ -8098,10 +8143,10 @@
         <v>82</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
@@ -8111,10 +8156,10 @@
         <v>13</v>
       </c>
       <c r="B221" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>280</v>
+        <v>736</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>241</v>
@@ -8123,10 +8168,10 @@
         <v>82</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
@@ -8136,10 +8181,10 @@
         <v>13</v>
       </c>
       <c r="B222" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>280</v>
+        <v>736</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>241</v>
@@ -8148,10 +8193,10 @@
         <v>82</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
@@ -8161,10 +8206,10 @@
         <v>13</v>
       </c>
       <c r="B223" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>280</v>
+        <v>736</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>241</v>
@@ -8173,42 +8218,42 @@
         <v>82</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
     </row>
     <row r="224" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B224" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>288</v>
+        <v>736</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
     </row>
     <row r="225" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B225" s="7">
         <v>65</v>
@@ -8233,7 +8278,7 @@
     </row>
     <row r="226" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B226" s="7">
         <v>65</v>
@@ -8245,20 +8290,20 @@
         <v>241</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
     </row>
     <row r="227" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B227" s="7">
         <v>65</v>
@@ -8283,7 +8328,7 @@
     </row>
     <row r="228" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B228" s="7">
         <v>65</v>
@@ -8298,17 +8343,17 @@
         <v>62</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H228" s="9"/>
       <c r="I228" s="9"/>
     </row>
     <row r="229" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B229" s="7">
         <v>65</v>
@@ -8333,32 +8378,32 @@
     </row>
     <row r="230" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B230" s="7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
     </row>
     <row r="231" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B231" s="7">
         <v>75</v>
@@ -8389,7 +8434,7 @@
         <v>75</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>293</v>
@@ -8398,17 +8443,17 @@
         <v>62</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
     </row>
     <row r="233" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B233" s="7">
         <v>75</v>
@@ -8431,7 +8476,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
     </row>
-    <row r="234" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>7</v>
       </c>
@@ -8448,17 +8493,17 @@
         <v>62</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
     </row>
     <row r="235" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B235" s="7">
         <v>75</v>
@@ -8483,25 +8528,25 @@
     </row>
     <row r="236" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B236" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H236" s="9"/>
       <c r="I236" s="9"/>
@@ -8523,20 +8568,20 @@
         <v>112</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
     </row>
     <row r="238" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B238" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>301</v>
@@ -8573,42 +8618,42 @@
         <v>112</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H239" s="9"/>
       <c r="I239" s="9"/>
     </row>
-    <row r="240" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B240" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H240" s="9"/>
       <c r="I240" s="9"/>
     </row>
     <row r="241" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B241" s="7">
         <v>78</v>
@@ -8620,7 +8665,7 @@
         <v>302</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>308</v>
@@ -8633,7 +8678,7 @@
     </row>
     <row r="242" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B242" s="7">
         <v>78</v>
@@ -8645,20 +8690,20 @@
         <v>302</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
     </row>
     <row r="243" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B243" s="7">
         <v>78</v>
@@ -8683,32 +8728,32 @@
     </row>
     <row r="244" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B244" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
     </row>
     <row r="245" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B245" s="7">
         <v>79</v>
@@ -8731,27 +8776,27 @@
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
     </row>
-    <row r="246" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B246" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
@@ -8770,45 +8815,45 @@
         <v>302</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
     </row>
-    <row r="248" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B248" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
     </row>
     <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B249" s="7">
         <v>81</v>
@@ -8856,34 +8901,34 @@
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
     </row>
-    <row r="251" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B251" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
     </row>
     <row r="252" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B252" s="7">
         <v>82</v>
@@ -8908,7 +8953,7 @@
     </row>
     <row r="253" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B253" s="7">
         <v>82</v>
@@ -8923,17 +8968,17 @@
         <v>55</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
     </row>
     <row r="254" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B254" s="7">
         <v>82</v>
@@ -8958,7 +9003,7 @@
     </row>
     <row r="255" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B255" s="7">
         <v>82</v>
@@ -8973,17 +9018,17 @@
         <v>55</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H255" s="9"/>
       <c r="I255" s="9"/>
     </row>
     <row r="256" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B256" s="7">
         <v>82</v>
@@ -9008,32 +9053,32 @@
     </row>
     <row r="257" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B257" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
     </row>
     <row r="258" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B258" s="7">
         <v>83</v>
@@ -9058,7 +9103,7 @@
     </row>
     <row r="259" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B259" s="7">
         <v>83</v>
@@ -9073,17 +9118,17 @@
         <v>67</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
     </row>
     <row r="260" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B260" s="7">
         <v>83</v>
@@ -9106,34 +9151,34 @@
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
     </row>
-    <row r="261" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B261" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
     </row>
     <row r="262" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B262" s="7">
         <v>84</v>
@@ -9158,7 +9203,7 @@
     </row>
     <row r="263" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B263" s="7">
         <v>84</v>
@@ -9173,17 +9218,17 @@
         <v>62</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H263" s="9"/>
       <c r="I263" s="9"/>
     </row>
     <row r="264" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B264" s="7">
         <v>84</v>
@@ -9208,7 +9253,7 @@
     </row>
     <row r="265" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B265" s="7">
         <v>84</v>
@@ -9223,17 +9268,17 @@
         <v>62</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
     </row>
     <row r="266" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B266" s="7">
         <v>84</v>
@@ -9256,34 +9301,34 @@
       <c r="H266" s="9"/>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B267" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
     </row>
     <row r="268" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B268" s="7">
         <v>85</v>
@@ -9306,34 +9351,34 @@
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
     </row>
-    <row r="269" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B269" s="7">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="H269" s="9"/>
       <c r="I269" s="9"/>
     </row>
     <row r="270" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B270" s="7">
         <v>81</v>
@@ -9358,7 +9403,7 @@
     </row>
     <row r="271" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B271" s="7">
         <v>81</v>
@@ -9370,20 +9415,20 @@
         <v>302</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
     </row>
     <row r="272" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B272" s="7">
         <v>81</v>
@@ -9406,34 +9451,34 @@
       <c r="H272" s="9"/>
       <c r="I272" s="9"/>
     </row>
-    <row r="273" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B273" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H273" s="9"/>
       <c r="I273" s="9"/>
     </row>
     <row r="274" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B274" s="7">
         <v>82</v>
@@ -9458,7 +9503,7 @@
     </row>
     <row r="275" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B275" s="7">
         <v>82</v>
@@ -9473,17 +9518,17 @@
         <v>55</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H275" s="9"/>
       <c r="I275" s="9"/>
     </row>
     <row r="276" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B276" s="7">
         <v>82</v>
@@ -9508,7 +9553,7 @@
     </row>
     <row r="277" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B277" s="7">
         <v>82</v>
@@ -9523,17 +9568,17 @@
         <v>55</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
     </row>
     <row r="278" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B278" s="7">
         <v>82</v>
@@ -9558,32 +9603,32 @@
     </row>
     <row r="279" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B279" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H279" s="9"/>
       <c r="I279" s="9"/>
     </row>
     <row r="280" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B280" s="7">
         <v>83</v>
@@ -9608,7 +9653,7 @@
     </row>
     <row r="281" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B281" s="7">
         <v>83</v>
@@ -9623,17 +9668,17 @@
         <v>67</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
     </row>
     <row r="282" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B282" s="7">
         <v>83</v>
@@ -9656,34 +9701,34 @@
       <c r="H282" s="9"/>
       <c r="I282" s="9"/>
     </row>
-    <row r="283" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B283" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
     </row>
     <row r="284" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B284" s="7">
         <v>84</v>
@@ -9708,7 +9753,7 @@
     </row>
     <row r="285" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B285" s="7">
         <v>84</v>
@@ -9723,17 +9768,17 @@
         <v>62</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H285" s="9"/>
       <c r="I285" s="9"/>
     </row>
     <row r="286" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B286" s="7">
         <v>84</v>
@@ -9758,7 +9803,7 @@
     </row>
     <row r="287" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B287" s="7">
         <v>84</v>
@@ -9773,17 +9818,17 @@
         <v>62</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H287" s="9"/>
       <c r="I287" s="9"/>
     </row>
     <row r="288" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B288" s="7">
         <v>84</v>
@@ -9806,34 +9851,34 @@
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
     </row>
-    <row r="289" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B289" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
     </row>
     <row r="290" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B290" s="7">
         <v>85</v>
@@ -9858,32 +9903,32 @@
     </row>
     <row r="291" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B291" s="7">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H291" s="9"/>
       <c r="I291" s="9"/>
     </row>
     <row r="292" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B292" s="7">
         <v>66</v>
@@ -9908,7 +9953,7 @@
     </row>
     <row r="293" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B293" s="7">
         <v>66</v>
@@ -9923,17 +9968,17 @@
         <v>112</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="G293" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H293" s="9"/>
       <c r="I293" s="9"/>
     </row>
     <row r="294" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B294" s="7">
         <v>66</v>
@@ -9958,32 +10003,32 @@
     </row>
     <row r="295" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B295" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H295" s="9"/>
       <c r="I295" s="9"/>
     </row>
     <row r="296" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B296" s="7">
         <v>67</v>
@@ -10008,7 +10053,7 @@
     </row>
     <row r="297" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B297" s="7">
         <v>67</v>
@@ -10023,17 +10068,17 @@
         <v>19</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H297" s="9"/>
       <c r="I297" s="9"/>
     </row>
     <row r="298" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B298" s="7">
         <v>67</v>
@@ -10058,32 +10103,32 @@
     </row>
     <row r="299" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B299" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
     </row>
     <row r="300" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B300" s="7">
         <v>68</v>
@@ -10108,7 +10153,7 @@
     </row>
     <row r="301" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B301" s="7">
         <v>68</v>
@@ -10123,17 +10168,17 @@
         <v>40</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G301" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
     </row>
     <row r="302" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B302" s="7">
         <v>68</v>
@@ -10158,7 +10203,7 @@
     </row>
     <row r="303" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B303" s="7">
         <v>68</v>
@@ -10170,20 +10215,20 @@
         <v>293</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
     </row>
     <row r="304" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B304" s="7">
         <v>68</v>
@@ -10208,7 +10253,7 @@
     </row>
     <row r="305" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B305" s="7">
         <v>68</v>
@@ -10220,20 +10265,20 @@
         <v>293</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G305" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
     </row>
     <row r="306" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B306" s="7">
         <v>68</v>
@@ -10258,7 +10303,7 @@
     </row>
     <row r="307" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B307" s="7">
         <v>68</v>
@@ -10273,17 +10318,17 @@
         <v>40</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
     </row>
     <row r="308" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B308" s="7">
         <v>68</v>
@@ -10308,32 +10353,32 @@
     </row>
     <row r="309" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B309" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
     </row>
     <row r="310" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B310" s="7">
         <v>69</v>
@@ -10358,7 +10403,7 @@
     </row>
     <row r="311" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B311" s="7">
         <v>69</v>
@@ -10373,17 +10418,17 @@
         <v>27</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
     </row>
     <row r="312" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B312" s="7">
         <v>69</v>
@@ -10408,7 +10453,7 @@
     </row>
     <row r="313" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B313" s="7">
         <v>69</v>
@@ -10423,17 +10468,17 @@
         <v>27</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G313" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H313" s="9"/>
       <c r="I313" s="9"/>
     </row>
     <row r="314" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B314" s="7">
         <v>69</v>
@@ -10458,7 +10503,7 @@
     </row>
     <row r="315" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B315" s="7">
         <v>69</v>
@@ -10473,17 +10518,17 @@
         <v>27</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H315" s="9"/>
       <c r="I315" s="9"/>
     </row>
     <row r="316" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B316" s="7">
         <v>69</v>
@@ -10508,7 +10553,7 @@
     </row>
     <row r="317" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B317" s="7">
         <v>69</v>
@@ -10523,17 +10568,17 @@
         <v>27</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H317" s="9"/>
       <c r="I317" s="9"/>
     </row>
     <row r="318" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B318" s="7">
         <v>69</v>
@@ -10558,7 +10603,7 @@
     </row>
     <row r="319" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B319" s="7">
         <v>69</v>
@@ -10573,17 +10618,17 @@
         <v>27</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H319" s="9"/>
       <c r="I319" s="9"/>
     </row>
     <row r="320" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B320" s="7">
         <v>69</v>
@@ -10608,32 +10653,32 @@
     </row>
     <row r="321" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B321" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G321" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H321" s="9"/>
       <c r="I321" s="9"/>
     </row>
     <row r="322" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B322" s="7">
         <v>70</v>
@@ -10658,7 +10703,7 @@
     </row>
     <row r="323" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B323" s="7">
         <v>70</v>
@@ -10670,20 +10715,20 @@
         <v>293</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H323" s="9"/>
       <c r="I323" s="9"/>
     </row>
     <row r="324" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B324" s="7">
         <v>70</v>
@@ -10708,7 +10753,7 @@
     </row>
     <row r="325" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B325" s="7">
         <v>70</v>
@@ -10723,17 +10768,17 @@
         <v>55</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
     </row>
     <row r="326" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B326" s="7">
         <v>70</v>
@@ -10758,7 +10803,7 @@
     </row>
     <row r="327" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B327" s="7">
         <v>70</v>
@@ -10770,20 +10815,20 @@
         <v>293</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
     </row>
     <row r="328" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B328" s="7">
         <v>70</v>
@@ -10808,7 +10853,7 @@
     </row>
     <row r="329" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B329" s="7">
         <v>70</v>
@@ -10823,17 +10868,17 @@
         <v>45</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H329" s="9"/>
       <c r="I329" s="9"/>
     </row>
     <row r="330" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B330" s="7">
         <v>70</v>
@@ -10858,7 +10903,7 @@
     </row>
     <row r="331" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B331" s="7">
         <v>70</v>
@@ -10873,17 +10918,17 @@
         <v>45</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H331" s="9"/>
       <c r="I331" s="9"/>
     </row>
     <row r="332" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B332" s="7">
         <v>70</v>
@@ -10908,7 +10953,7 @@
     </row>
     <row r="333" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B333" s="7">
         <v>70</v>
@@ -10923,17 +10968,17 @@
         <v>45</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
     </row>
     <row r="334" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B334" s="7">
         <v>70</v>
@@ -10958,32 +11003,32 @@
     </row>
     <row r="335" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B335" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H335" s="9"/>
       <c r="I335" s="9"/>
     </row>
     <row r="336" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B336" s="7">
         <v>71</v>
@@ -11008,7 +11053,7 @@
     </row>
     <row r="337" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B337" s="7">
         <v>71</v>
@@ -11023,17 +11068,17 @@
         <v>67</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H337" s="9"/>
       <c r="I337" s="9"/>
     </row>
     <row r="338" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B338" s="7">
         <v>71</v>
@@ -11058,7 +11103,7 @@
     </row>
     <row r="339" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B339" s="7">
         <v>71</v>
@@ -11073,17 +11118,17 @@
         <v>67</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H339" s="9"/>
       <c r="I339" s="9"/>
     </row>
     <row r="340" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B340" s="7">
         <v>71</v>
@@ -11108,7 +11153,7 @@
     </row>
     <row r="341" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B341" s="7">
         <v>71</v>
@@ -11123,17 +11168,17 @@
         <v>67</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H341" s="9"/>
       <c r="I341" s="9"/>
     </row>
     <row r="342" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B342" s="7">
         <v>71</v>
@@ -11158,7 +11203,7 @@
     </row>
     <row r="343" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B343" s="7">
         <v>71</v>
@@ -11170,20 +11215,20 @@
         <v>293</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H343" s="9"/>
       <c r="I343" s="9"/>
     </row>
     <row r="344" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B344" s="7">
         <v>71</v>
@@ -11208,7 +11253,7 @@
     </row>
     <row r="345" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B345" s="7">
         <v>71</v>
@@ -11223,17 +11268,17 @@
         <v>55</v>
       </c>
       <c r="F345" s="7" t="s">
-        <v>402</v>
+        <v>171</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H345" s="9"/>
       <c r="I345" s="9"/>
     </row>
     <row r="346" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B346" s="7">
         <v>71</v>
@@ -11258,32 +11303,32 @@
     </row>
     <row r="347" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B347" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D347" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>171</v>
+        <v>406</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H347" s="9"/>
       <c r="I347" s="9"/>
     </row>
     <row r="348" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B348" s="7">
         <v>72</v>
@@ -11308,7 +11353,7 @@
     </row>
     <row r="349" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B349" s="7">
         <v>72</v>
@@ -11323,17 +11368,17 @@
         <v>82</v>
       </c>
       <c r="F349" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
     </row>
     <row r="350" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B350" s="7">
         <v>72</v>
@@ -11358,7 +11403,7 @@
     </row>
     <row r="351" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B351" s="7">
         <v>72</v>
@@ -11373,17 +11418,17 @@
         <v>82</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H351" s="9"/>
       <c r="I351" s="9"/>
     </row>
     <row r="352" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B352" s="7">
         <v>72</v>
@@ -11408,7 +11453,7 @@
     </row>
     <row r="353" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B353" s="7">
         <v>72</v>
@@ -11423,17 +11468,17 @@
         <v>82</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H353" s="9"/>
       <c r="I353" s="9"/>
     </row>
     <row r="354" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B354" s="7">
         <v>72</v>
@@ -11458,7 +11503,7 @@
     </row>
     <row r="355" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B355" s="7">
         <v>72</v>
@@ -11473,17 +11518,17 @@
         <v>82</v>
       </c>
       <c r="F355" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H355" s="9"/>
       <c r="I355" s="9"/>
     </row>
     <row r="356" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B356" s="7">
         <v>72</v>
@@ -11506,34 +11551,34 @@
       <c r="H356" s="9"/>
       <c r="I356" s="9"/>
     </row>
-    <row r="357" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B357" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D357" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G357" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H357" s="9"/>
       <c r="I357" s="9"/>
     </row>
     <row r="358" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B358" s="7">
         <v>73</v>
@@ -11558,7 +11603,7 @@
     </row>
     <row r="359" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B359" s="7">
         <v>73</v>
@@ -11573,17 +11618,17 @@
         <v>67</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H359" s="9"/>
       <c r="I359" s="9"/>
     </row>
     <row r="360" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B360" s="7">
         <v>73</v>
@@ -11608,7 +11653,7 @@
     </row>
     <row r="361" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B361" s="7">
         <v>73</v>
@@ -11623,17 +11668,17 @@
         <v>67</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H361" s="9"/>
       <c r="I361" s="9"/>
     </row>
     <row r="362" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B362" s="7">
         <v>73</v>
@@ -11658,7 +11703,7 @@
     </row>
     <row r="363" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B363" s="7">
         <v>73</v>
@@ -11670,20 +11715,20 @@
         <v>293</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H363" s="9"/>
       <c r="I363" s="9"/>
     </row>
     <row r="364" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B364" s="7">
         <v>73</v>
@@ -11708,7 +11753,7 @@
     </row>
     <row r="365" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B365" s="7">
         <v>73</v>
@@ -11720,20 +11765,20 @@
         <v>293</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>423</v>
+        <v>289</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H365" s="9"/>
       <c r="I365" s="9"/>
     </row>
     <row r="366" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B366" s="7">
         <v>73</v>
@@ -11756,15 +11801,15 @@
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
     </row>
-    <row r="367" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B367" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>293</v>
@@ -11773,17 +11818,17 @@
         <v>82</v>
       </c>
       <c r="F367" s="7" t="s">
-        <v>289</v>
+        <v>427</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H367" s="9"/>
       <c r="I367" s="9"/>
     </row>
     <row r="368" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B368" s="7">
         <v>74</v>
@@ -11808,7 +11853,7 @@
     </row>
     <row r="369" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B369" s="7">
         <v>74</v>
@@ -11823,17 +11868,17 @@
         <v>82</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H369" s="9"/>
       <c r="I369" s="9"/>
     </row>
     <row r="370" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B370" s="7">
         <v>74</v>
@@ -11858,7 +11903,7 @@
     </row>
     <row r="371" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B371" s="7">
         <v>74</v>
@@ -11873,17 +11918,17 @@
         <v>82</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H371" s="9"/>
       <c r="I371" s="9"/>
     </row>
     <row r="372" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B372" s="7">
         <v>74</v>
@@ -11908,7 +11953,7 @@
     </row>
     <row r="373" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B373" s="7">
         <v>74</v>
@@ -11923,17 +11968,17 @@
         <v>82</v>
       </c>
       <c r="F373" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G373" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
     </row>
     <row r="374" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B374" s="7">
         <v>74</v>
@@ -11958,7 +12003,7 @@
     </row>
     <row r="375" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B375" s="7">
         <v>74</v>
@@ -11973,17 +12018,17 @@
         <v>82</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H375" s="9"/>
       <c r="I375" s="9"/>
     </row>
     <row r="376" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B376" s="7">
         <v>74</v>
@@ -12008,7 +12053,7 @@
     </row>
     <row r="377" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B377" s="7">
         <v>74</v>
@@ -12020,20 +12065,20 @@
         <v>293</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F377" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G377" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H377" s="9"/>
       <c r="I377" s="9"/>
     </row>
     <row r="378" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B378" s="7">
         <v>74</v>
@@ -12056,9 +12101,9 @@
       <c r="H378" s="9"/>
       <c r="I378" s="9"/>
     </row>
-    <row r="379" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B379" s="7">
         <v>74</v>
@@ -12073,17 +12118,17 @@
         <v>67</v>
       </c>
       <c r="F379" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H379" s="9"/>
       <c r="I379" s="9"/>
     </row>
     <row r="380" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B380" s="7">
         <v>74</v>
@@ -12106,34 +12151,34 @@
       <c r="H380" s="9"/>
       <c r="I380" s="9"/>
     </row>
-    <row r="381" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B381" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="D381" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G381" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H381" s="9"/>
       <c r="I381" s="9"/>
     </row>
     <row r="382" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B382" s="7">
         <v>75</v>
@@ -12151,14 +12196,14 @@
         <v>441</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
     </row>
     <row r="383" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B383" s="7">
         <v>75</v>
@@ -12173,17 +12218,17 @@
         <v>62</v>
       </c>
       <c r="F383" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H383" s="9"/>
       <c r="I383" s="9"/>
     </row>
     <row r="384" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B384" s="7">
         <v>75</v>
@@ -12208,7 +12253,7 @@
     </row>
     <row r="385" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B385" s="7">
         <v>75</v>
@@ -12223,17 +12268,17 @@
         <v>62</v>
       </c>
       <c r="F385" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G385" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H385" s="9"/>
       <c r="I385" s="9"/>
     </row>
     <row r="386" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B386" s="7">
         <v>75</v>
@@ -12258,7 +12303,7 @@
     </row>
     <row r="387" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B387" s="7">
         <v>75</v>
@@ -12270,20 +12315,20 @@
         <v>293</v>
       </c>
       <c r="E387" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
     </row>
     <row r="388" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B388" s="7">
         <v>75</v>
@@ -12308,7 +12353,7 @@
     </row>
     <row r="389" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B389" s="7">
         <v>75</v>
@@ -12320,20 +12365,20 @@
         <v>293</v>
       </c>
       <c r="E389" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F389" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H389" s="9"/>
       <c r="I389" s="9"/>
     </row>
     <row r="390" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B390" s="7">
         <v>75</v>
@@ -12358,7 +12403,7 @@
     </row>
     <row r="391" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B391" s="7">
         <v>75</v>
@@ -12373,17 +12418,17 @@
         <v>62</v>
       </c>
       <c r="F391" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G391" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
     </row>
     <row r="392" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B392" s="7">
         <v>75</v>
@@ -12408,7 +12453,7 @@
     </row>
     <row r="393" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B393" s="7">
         <v>75</v>
@@ -12423,17 +12468,17 @@
         <v>62</v>
       </c>
       <c r="F393" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G393" s="7" t="s">
-        <v>453</v>
+        <v>295</v>
       </c>
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
     </row>
     <row r="394" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B394" s="7">
         <v>75</v>
@@ -12458,7 +12503,7 @@
     </row>
     <row r="395" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B395" s="7">
         <v>75</v>
@@ -12473,17 +12518,17 @@
         <v>62</v>
       </c>
       <c r="F395" s="7" t="s">
-        <v>454</v>
+        <v>297</v>
       </c>
       <c r="G395" s="7" t="s">
-        <v>295</v>
+        <v>455</v>
       </c>
       <c r="H395" s="9"/>
       <c r="I395" s="9"/>
     </row>
     <row r="396" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B396" s="7">
         <v>75</v>
@@ -12506,9 +12551,9 @@
       <c r="H396" s="9"/>
       <c r="I396" s="9"/>
     </row>
-    <row r="397" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B397" s="7">
         <v>75</v>
@@ -12523,17 +12568,17 @@
         <v>62</v>
       </c>
       <c r="F397" s="7" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="G397" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H397" s="9"/>
       <c r="I397" s="9"/>
     </row>
     <row r="398" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B398" s="7">
         <v>75</v>
@@ -12556,34 +12601,34 @@
       <c r="H398" s="9"/>
       <c r="I398" s="9"/>
     </row>
-    <row r="399" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B399" s="7">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>296</v>
+        <v>458</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>293</v>
+        <v>459</v>
       </c>
       <c r="E399" s="7" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F399" s="7" t="s">
-        <v>456</v>
+        <v>187</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H399" s="9"/>
       <c r="I399" s="9"/>
     </row>
     <row r="400" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B400" s="7">
         <v>86</v>
@@ -12606,9 +12651,9 @@
       <c r="H400" s="9"/>
       <c r="I400" s="9"/>
     </row>
-    <row r="401" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B401" s="7">
         <v>86</v>
@@ -12623,17 +12668,17 @@
         <v>112</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H401" s="9"/>
       <c r="I401" s="9"/>
     </row>
     <row r="402" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B402" s="7">
         <v>86</v>
@@ -12656,9 +12701,9 @@
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
     </row>
-    <row r="403" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B403" s="7">
         <v>86</v>
@@ -12673,17 +12718,17 @@
         <v>112</v>
       </c>
       <c r="F403" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G403" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H403" s="9"/>
       <c r="I403" s="9"/>
     </row>
     <row r="404" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B404" s="7">
         <v>86</v>
@@ -12706,15 +12751,15 @@
       <c r="H404" s="9"/>
       <c r="I404" s="9"/>
     </row>
-    <row r="405" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B405" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>459</v>
@@ -12723,17 +12768,17 @@
         <v>112</v>
       </c>
       <c r="F405" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H405" s="9"/>
       <c r="I405" s="9"/>
     </row>
     <row r="406" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B406" s="7">
         <v>87</v>
@@ -12745,7 +12790,7 @@
         <v>459</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F406" s="7" t="s">
         <v>466</v>
@@ -12756,7 +12801,7 @@
       <c r="H406" s="9"/>
       <c r="I406" s="9"/>
     </row>
-    <row r="407" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>13</v>
       </c>
@@ -12773,17 +12818,17 @@
         <v>19</v>
       </c>
       <c r="F407" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H407" s="9"/>
       <c r="I407" s="9"/>
     </row>
     <row r="408" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B408" s="7">
         <v>87</v>
@@ -12823,17 +12868,17 @@
         <v>19</v>
       </c>
       <c r="F409" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H409" s="9"/>
       <c r="I409" s="9"/>
     </row>
     <row r="410" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B410" s="7">
         <v>87</v>
@@ -12856,9 +12901,9 @@
       <c r="H410" s="9"/>
       <c r="I410" s="9"/>
     </row>
-    <row r="411" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B411" s="7">
         <v>87</v>
@@ -12873,17 +12918,17 @@
         <v>19</v>
       </c>
       <c r="F411" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G411" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H411" s="9"/>
       <c r="I411" s="9"/>
     </row>
     <row r="412" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B412" s="7">
         <v>87</v>
@@ -12906,34 +12951,34 @@
       <c r="H412" s="9"/>
       <c r="I412" s="9"/>
     </row>
-    <row r="413" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B413" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F413" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H413" s="9"/>
       <c r="I413" s="9"/>
     </row>
     <row r="414" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B414" s="7">
         <v>88</v>
@@ -12958,7 +13003,7 @@
     </row>
     <row r="415" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B415" s="7">
         <v>88</v>
@@ -12973,17 +13018,17 @@
         <v>27</v>
       </c>
       <c r="F415" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
     </row>
     <row r="416" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B416" s="7">
         <v>88</v>
@@ -13006,9 +13051,9 @@
       <c r="H416" s="9"/>
       <c r="I416" s="9"/>
     </row>
-    <row r="417" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B417" s="7">
         <v>88</v>
@@ -13023,17 +13068,17 @@
         <v>27</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H417" s="9"/>
       <c r="I417" s="9"/>
     </row>
     <row r="418" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B418" s="7">
         <v>88</v>
@@ -13056,9 +13101,9 @@
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
     </row>
-    <row r="419" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B419" s="7">
         <v>88</v>
@@ -13073,17 +13118,17 @@
         <v>27</v>
       </c>
       <c r="F419" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G419" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
     </row>
     <row r="420" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B420" s="7">
         <v>88</v>
@@ -13108,32 +13153,32 @@
     </row>
     <row r="421" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B421" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E421" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F421" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G421" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H421" s="9"/>
       <c r="I421" s="9"/>
     </row>
     <row r="422" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B422" s="7">
         <v>89</v>
@@ -13145,7 +13190,7 @@
         <v>459</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F422" s="7" t="s">
         <v>484</v>
@@ -13158,7 +13203,7 @@
     </row>
     <row r="423" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B423" s="7">
         <v>89</v>
@@ -13170,20 +13215,20 @@
         <v>459</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H423" s="9"/>
       <c r="I423" s="9"/>
     </row>
     <row r="424" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B424" s="7">
         <v>89</v>
@@ -13208,7 +13253,7 @@
     </row>
     <row r="425" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B425" s="7">
         <v>89</v>
@@ -13223,17 +13268,17 @@
         <v>55</v>
       </c>
       <c r="F425" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H425" s="9"/>
       <c r="I425" s="9"/>
     </row>
     <row r="426" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B426" s="7">
         <v>89</v>
@@ -13258,7 +13303,7 @@
     </row>
     <row r="427" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B427" s="7">
         <v>89</v>
@@ -13273,17 +13318,17 @@
         <v>55</v>
       </c>
       <c r="F427" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H427" s="9"/>
       <c r="I427" s="9"/>
     </row>
     <row r="428" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B428" s="7">
         <v>89</v>
@@ -13308,7 +13353,7 @@
     </row>
     <row r="429" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B429" s="7">
         <v>89</v>
@@ -13323,17 +13368,17 @@
         <v>55</v>
       </c>
       <c r="F429" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H429" s="9"/>
       <c r="I429" s="9"/>
     </row>
     <row r="430" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B430" s="7">
         <v>89</v>
@@ -13358,7 +13403,7 @@
     </row>
     <row r="431" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B431" s="7">
         <v>89</v>
@@ -13373,17 +13418,17 @@
         <v>55</v>
       </c>
       <c r="F431" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G431" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H431" s="9"/>
       <c r="I431" s="9"/>
     </row>
     <row r="432" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B432" s="7">
         <v>89</v>
@@ -13408,7 +13453,7 @@
     </row>
     <row r="433" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B433" s="7">
         <v>89</v>
@@ -13423,17 +13468,17 @@
         <v>55</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G433" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H433" s="9"/>
       <c r="I433" s="9"/>
     </row>
     <row r="434" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B434" s="7">
         <v>89</v>
@@ -13458,32 +13503,32 @@
     </row>
     <row r="435" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B435" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E435" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F435" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H435" s="9"/>
       <c r="I435" s="9"/>
     </row>
     <row r="436" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B436" s="7">
         <v>90</v>
@@ -13508,7 +13553,7 @@
     </row>
     <row r="437" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B437" s="7">
         <v>90</v>
@@ -13523,17 +13568,17 @@
         <v>67</v>
       </c>
       <c r="F437" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H437" s="9"/>
       <c r="I437" s="9"/>
     </row>
     <row r="438" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B438" s="7">
         <v>90</v>
@@ -13558,7 +13603,7 @@
     </row>
     <row r="439" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B439" s="7">
         <v>90</v>
@@ -13573,17 +13618,17 @@
         <v>67</v>
       </c>
       <c r="F439" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
     </row>
     <row r="440" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B440" s="7">
         <v>90</v>
@@ -13608,7 +13653,7 @@
     </row>
     <row r="441" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B441" s="7">
         <v>90</v>
@@ -13623,17 +13668,17 @@
         <v>67</v>
       </c>
       <c r="F441" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G441" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H441" s="9"/>
       <c r="I441" s="9"/>
     </row>
     <row r="442" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B442" s="7">
         <v>90</v>
@@ -13658,32 +13703,32 @@
     </row>
     <row r="443" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B443" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D443" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E443" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F443" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G443" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
     </row>
     <row r="444" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B444" s="7">
         <v>91</v>
@@ -13708,7 +13753,7 @@
     </row>
     <row r="445" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B445" s="7">
         <v>91</v>
@@ -13723,17 +13768,17 @@
         <v>40</v>
       </c>
       <c r="F445" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G445" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
     </row>
     <row r="446" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B446" s="7">
         <v>91</v>
@@ -13758,7 +13803,7 @@
     </row>
     <row r="447" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B447" s="7">
         <v>91</v>
@@ -13773,17 +13818,17 @@
         <v>40</v>
       </c>
       <c r="F447" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G447" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
     </row>
     <row r="448" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B448" s="7">
         <v>91</v>
@@ -13808,32 +13853,32 @@
     </row>
     <row r="449" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B449" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D449" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E449" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F449" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G449" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H449" s="9"/>
       <c r="I449" s="9"/>
     </row>
     <row r="450" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B450" s="7">
         <v>92</v>
@@ -13856,34 +13901,34 @@
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
     </row>
-    <row r="451" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B451" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D451" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F451" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G451" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H451" s="9"/>
       <c r="I451" s="9"/>
     </row>
     <row r="452" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B452" s="7">
         <v>93</v>
@@ -13906,9 +13951,9 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
     </row>
-    <row r="453" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B453" s="7">
         <v>93</v>
@@ -13923,17 +13968,17 @@
         <v>62</v>
       </c>
       <c r="F453" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G453" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H453" s="9"/>
       <c r="I453" s="9"/>
     </row>
     <row r="454" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B454" s="7">
         <v>93</v>
@@ -13958,32 +14003,32 @@
     </row>
     <row r="455" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B455" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D455" s="7" t="s">
         <v>459</v>
       </c>
       <c r="E455" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F455" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G455" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H455" s="9"/>
       <c r="I455" s="9"/>
     </row>
     <row r="456" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B456" s="7">
         <v>94</v>
@@ -14008,32 +14053,32 @@
     </row>
     <row r="457" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B457" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D457" s="7" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="E457" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F457" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G457" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H457" s="9"/>
       <c r="I457" s="9"/>
     </row>
     <row r="458" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B458" s="7">
         <v>95</v>
@@ -14058,7 +14103,7 @@
     </row>
     <row r="459" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B459" s="7">
         <v>95</v>
@@ -14073,17 +14118,17 @@
         <v>112</v>
       </c>
       <c r="F459" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G459" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H459" s="9"/>
       <c r="I459" s="9"/>
     </row>
     <row r="460" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B460" s="7">
         <v>95</v>
@@ -14108,7 +14153,7 @@
     </row>
     <row r="461" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B461" s="7">
         <v>95</v>
@@ -14123,17 +14168,17 @@
         <v>112</v>
       </c>
       <c r="F461" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H461" s="9"/>
       <c r="I461" s="9"/>
     </row>
     <row r="462" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B462" s="7">
         <v>95</v>
@@ -14158,7 +14203,7 @@
     </row>
     <row r="463" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B463" s="7">
         <v>95</v>
@@ -14173,17 +14218,17 @@
         <v>112</v>
       </c>
       <c r="F463" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G463" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H463" s="9"/>
       <c r="I463" s="9"/>
     </row>
     <row r="464" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B464" s="7">
         <v>95</v>
@@ -14208,7 +14253,7 @@
     </row>
     <row r="465" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B465" s="7">
         <v>95</v>
@@ -14223,17 +14268,17 @@
         <v>112</v>
       </c>
       <c r="F465" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G465" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H465" s="9"/>
       <c r="I465" s="9"/>
     </row>
     <row r="466" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B466" s="7">
         <v>95</v>
@@ -14256,9 +14301,9 @@
       <c r="H466" s="9"/>
       <c r="I466" s="9"/>
     </row>
-    <row r="467" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B467" s="7">
         <v>95</v>
@@ -14273,17 +14318,17 @@
         <v>112</v>
       </c>
       <c r="F467" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G467" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H467" s="9"/>
       <c r="I467" s="9"/>
     </row>
     <row r="468" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B468" s="7">
         <v>95</v>
@@ -14308,13 +14353,13 @@
     </row>
     <row r="469" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B469" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>526</v>
@@ -14323,17 +14368,17 @@
         <v>112</v>
       </c>
       <c r="F469" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H469" s="9"/>
       <c r="I469" s="9"/>
     </row>
     <row r="470" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B470" s="7">
         <v>96</v>
@@ -14358,7 +14403,7 @@
     </row>
     <row r="471" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B471" s="7">
         <v>96</v>
@@ -14373,17 +14418,17 @@
         <v>112</v>
       </c>
       <c r="F471" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H471" s="9"/>
       <c r="I471" s="9"/>
     </row>
     <row r="472" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B472" s="7">
         <v>96</v>
@@ -14408,7 +14453,7 @@
     </row>
     <row r="473" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B473" s="7">
         <v>96</v>
@@ -14420,20 +14465,20 @@
         <v>526</v>
       </c>
       <c r="E473" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F473" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G473" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H473" s="9"/>
       <c r="I473" s="9"/>
     </row>
     <row r="474" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B474" s="7">
         <v>96</v>
@@ -14458,10 +14503,10 @@
     </row>
     <row r="475" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B475" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>539</v>
@@ -14473,17 +14518,17 @@
         <v>19</v>
       </c>
       <c r="F475" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H475" s="9"/>
       <c r="I475" s="9"/>
     </row>
     <row r="476" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B476" s="7">
         <v>97</v>
@@ -14508,32 +14553,32 @@
     </row>
     <row r="477" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B477" s="7">
         <v>97</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D477" s="7" t="s">
         <v>526</v>
       </c>
       <c r="E477" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F477" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G477" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H477" s="9"/>
       <c r="I477" s="9"/>
     </row>
     <row r="478" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B478" s="7">
         <v>97</v>
@@ -14558,13 +14603,13 @@
     </row>
     <row r="479" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B479" s="7">
         <v>97</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>526</v>
@@ -14573,17 +14618,17 @@
         <v>112</v>
       </c>
       <c r="F479" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G479" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H479" s="9"/>
       <c r="I479" s="9"/>
     </row>
     <row r="480" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B480" s="7">
         <v>97</v>
@@ -14608,32 +14653,32 @@
     </row>
     <row r="481" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B481" s="7">
         <v>97</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D481" s="7" t="s">
         <v>526</v>
       </c>
       <c r="E481" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F481" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H481" s="9"/>
       <c r="I481" s="9"/>
     </row>
     <row r="482" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B482" s="7">
         <v>97</v>
@@ -14656,15 +14701,15 @@
       <c r="H482" s="9"/>
       <c r="I482" s="9"/>
     </row>
-    <row r="483" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B483" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D483" s="7" t="s">
         <v>526</v>
@@ -14673,23 +14718,23 @@
         <v>19</v>
       </c>
       <c r="F483" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G483" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H483" s="9"/>
       <c r="I483" s="9"/>
     </row>
     <row r="484" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B484" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>526</v>
@@ -14698,7 +14743,7 @@
         <v>19</v>
       </c>
       <c r="F484" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G484" s="7" t="s">
         <v>551</v>
@@ -14708,7 +14753,7 @@
     </row>
     <row r="485" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B485" s="7">
         <v>98</v>
@@ -14723,23 +14768,23 @@
         <v>19</v>
       </c>
       <c r="F485" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H485" s="9"/>
       <c r="I485" s="9"/>
     </row>
     <row r="486" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B486" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="D486" s="7" t="s">
         <v>526</v>
@@ -14758,7 +14803,7 @@
     </row>
     <row r="487" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B487" s="7">
         <v>98</v>
@@ -14770,26 +14815,26 @@
         <v>526</v>
       </c>
       <c r="E487" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F487" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H487" s="9"/>
       <c r="I487" s="9"/>
     </row>
     <row r="488" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B488" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="D488" s="7" t="s">
         <v>526</v>
@@ -14836,10 +14881,10 @@
         <v>13</v>
       </c>
       <c r="B490" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="D490" s="7" t="s">
         <v>526</v>
@@ -14886,10 +14931,10 @@
         <v>13</v>
       </c>
       <c r="B492" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="D492" s="7" t="s">
         <v>526</v>
@@ -15356,15 +15401,15 @@
       <c r="H510" s="9"/>
       <c r="I510" s="9"/>
     </row>
-    <row r="511" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A511" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B511" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="D511" s="7" t="s">
         <v>526</v>
@@ -15406,15 +15451,15 @@
       <c r="H512" s="9"/>
       <c r="I512" s="9"/>
     </row>
-    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A513" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B513" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="D513" s="7" t="s">
         <v>526</v>
@@ -15456,15 +15501,15 @@
       <c r="H514" s="9"/>
       <c r="I514" s="9"/>
     </row>
-    <row r="515" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A515" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B515" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="D515" s="7" t="s">
         <v>526</v>
@@ -15506,15 +15551,15 @@
       <c r="H516" s="9"/>
       <c r="I516" s="9"/>
     </row>
-    <row r="517" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A517" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B517" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="D517" s="7" t="s">
         <v>526</v>
@@ -15561,10 +15606,10 @@
         <v>13</v>
       </c>
       <c r="B519" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>592</v>
+        <v>739</v>
       </c>
       <c r="D519" s="7" t="s">
         <v>526</v>
@@ -15611,10 +15656,10 @@
         <v>13</v>
       </c>
       <c r="B521" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>592</v>
+        <v>739</v>
       </c>
       <c r="D521" s="7" t="s">
         <v>526</v>
@@ -15661,10 +15706,10 @@
         <v>13</v>
       </c>
       <c r="B523" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>592</v>
+        <v>739</v>
       </c>
       <c r="D523" s="7" t="s">
         <v>526</v>
@@ -16061,10 +16106,10 @@
         <v>13</v>
       </c>
       <c r="B539" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>615</v>
+        <v>740</v>
       </c>
       <c r="D539" s="7" t="s">
         <v>616</v>
@@ -16111,10 +16156,10 @@
         <v>13</v>
       </c>
       <c r="B541" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>615</v>
+        <v>740</v>
       </c>
       <c r="D541" s="7" t="s">
         <v>616</v>
@@ -16161,10 +16206,10 @@
         <v>13</v>
       </c>
       <c r="B543" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D543" s="7" t="s">
         <v>616</v>
@@ -16211,10 +16256,10 @@
         <v>13</v>
       </c>
       <c r="B545" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D545" s="7" t="s">
         <v>616</v>
@@ -16261,10 +16306,10 @@
         <v>13</v>
       </c>
       <c r="B547" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D547" s="7" t="s">
         <v>616</v>
@@ -16311,10 +16356,10 @@
         <v>13</v>
       </c>
       <c r="B549" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D549" s="7" t="s">
         <v>616</v>
@@ -16361,10 +16406,10 @@
         <v>13</v>
       </c>
       <c r="B551" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D551" s="7" t="s">
         <v>616</v>
@@ -16411,10 +16456,10 @@
         <v>13</v>
       </c>
       <c r="B553" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D553" s="7" t="s">
         <v>616</v>
@@ -16461,10 +16506,10 @@
         <v>13</v>
       </c>
       <c r="B555" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>621</v>
+        <v>741</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>616</v>
@@ -17561,10 +17606,10 @@
         <v>13</v>
       </c>
       <c r="B599" s="7">
-        <v>119</v>
-      </c>
-      <c r="C599" s="8" t="s">
-        <v>687</v>
+        <v>120</v>
+      </c>
+      <c r="C599" s="11" t="s">
+        <v>742</v>
       </c>
       <c r="D599" s="7" t="s">
         <v>616</v>
@@ -17611,10 +17656,10 @@
         <v>13</v>
       </c>
       <c r="B601" s="7">
-        <v>119</v>
-      </c>
-      <c r="C601" s="8" t="s">
-        <v>687</v>
+        <v>120</v>
+      </c>
+      <c r="C601" s="11" t="s">
+        <v>742</v>
       </c>
       <c r="D601" s="7" t="s">
         <v>616</v>
@@ -17661,10 +17706,10 @@
         <v>13</v>
       </c>
       <c r="B603" s="7">
-        <v>119</v>
-      </c>
-      <c r="C603" s="8" t="s">
-        <v>687</v>
+        <v>120</v>
+      </c>
+      <c r="C603" s="11" t="s">
+        <v>742</v>
       </c>
       <c r="D603" s="7" t="s">
         <v>616</v>
@@ -17936,10 +17981,10 @@
         <v>7</v>
       </c>
       <c r="B614" s="7">
-        <v>123</v>
-      </c>
-      <c r="C614" s="8" t="s">
-        <v>706</v>
+        <v>124</v>
+      </c>
+      <c r="C614" s="11" t="s">
+        <v>743</v>
       </c>
       <c r="D614" s="7" t="s">
         <v>616</v>
@@ -17983,13 +18028,13 @@
     </row>
     <row r="616" spans="1:9" ht="40" x14ac:dyDescent="0.25">
       <c r="A616" s="6" t="s">
-        <v>709</v>
+        <v>7</v>
       </c>
       <c r="B616" s="7">
-        <v>123</v>
-      </c>
-      <c r="C616" s="8" t="s">
-        <v>706</v>
+        <v>124</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>743</v>
       </c>
       <c r="D616" s="7" t="s">
         <v>616</v>
@@ -18011,10 +18056,10 @@
         <v>7</v>
       </c>
       <c r="B617" s="7">
-        <v>123</v>
-      </c>
-      <c r="C617" s="8" t="s">
-        <v>706</v>
+        <v>124</v>
+      </c>
+      <c r="C617" s="11" t="s">
+        <v>743</v>
       </c>
       <c r="D617" s="7" t="s">
         <v>616</v>
@@ -18023,10 +18068,10 @@
         <v>82</v>
       </c>
       <c r="F617" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G617" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="G617" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="H617" s="9"/>
       <c r="I617" s="9"/>
@@ -18048,10 +18093,10 @@
         <v>82</v>
       </c>
       <c r="F618" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G618" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="G618" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="H618" s="9"/>
       <c r="I618" s="9"/>
@@ -18064,7 +18109,7 @@
         <v>125</v>
       </c>
       <c r="C619" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D619" s="7" t="s">
         <v>616</v>
@@ -18073,10 +18118,10 @@
         <v>82</v>
       </c>
       <c r="F619" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G619" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="G619" s="7" t="s">
-        <v>714</v>
       </c>
       <c r="H619" s="9"/>
       <c r="I619" s="9"/>
@@ -18089,7 +18134,7 @@
         <v>125</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D620" s="7" t="s">
         <v>616</v>
@@ -18098,10 +18143,10 @@
         <v>82</v>
       </c>
       <c r="F620" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G620" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="G620" s="7" t="s">
-        <v>714</v>
       </c>
       <c r="H620" s="9"/>
       <c r="I620" s="9"/>
@@ -18114,7 +18159,7 @@
         <v>125</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D621" s="7" t="s">
         <v>616</v>
@@ -18123,10 +18168,10 @@
         <v>82</v>
       </c>
       <c r="F621" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G621" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="G621" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="H621" s="9"/>
       <c r="I621" s="9"/>
@@ -18139,7 +18184,7 @@
         <v>125</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D622" s="7" t="s">
         <v>616</v>
@@ -18148,10 +18193,10 @@
         <v>82</v>
       </c>
       <c r="F622" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G622" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="G622" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="H622" s="9"/>
       <c r="I622" s="9"/>
@@ -18164,7 +18209,7 @@
         <v>125</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D623" s="7" t="s">
         <v>616</v>
@@ -18173,10 +18218,10 @@
         <v>82</v>
       </c>
       <c r="F623" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G623" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="G623" s="7" t="s">
-        <v>718</v>
       </c>
       <c r="H623" s="9"/>
       <c r="I623" s="9"/>
@@ -18189,7 +18234,7 @@
         <v>125</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D624" s="7" t="s">
         <v>616</v>
@@ -18198,10 +18243,10 @@
         <v>82</v>
       </c>
       <c r="F624" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G624" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="G624" s="7" t="s">
-        <v>718</v>
       </c>
       <c r="H624" s="9"/>
       <c r="I624" s="9"/>
@@ -18214,7 +18259,7 @@
         <v>126</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D625" s="7" t="s">
         <v>616</v>
@@ -18223,10 +18268,10 @@
         <v>82</v>
       </c>
       <c r="F625" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G625" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="G625" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="H625" s="9"/>
       <c r="I625" s="9"/>
@@ -18239,7 +18284,7 @@
         <v>126</v>
       </c>
       <c r="C626" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D626" s="7" t="s">
         <v>616</v>
@@ -18248,10 +18293,10 @@
         <v>82</v>
       </c>
       <c r="F626" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G626" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="G626" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="H626" s="9"/>
       <c r="I626" s="9"/>
@@ -18264,7 +18309,7 @@
         <v>127</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D627" s="7" t="s">
         <v>616</v>
@@ -18273,10 +18318,10 @@
         <v>82</v>
       </c>
       <c r="F627" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G627" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="G627" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="H627" s="9"/>
       <c r="I627" s="9"/>
@@ -18289,7 +18334,7 @@
         <v>127</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D628" s="7" t="s">
         <v>616</v>
@@ -18298,10 +18343,10 @@
         <v>82</v>
       </c>
       <c r="F628" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G628" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="G628" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="H628" s="9"/>
       <c r="I628" s="9"/>
@@ -18314,7 +18359,7 @@
         <v>128</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D629" s="7" t="s">
         <v>616</v>
@@ -18323,10 +18368,10 @@
         <v>82</v>
       </c>
       <c r="F629" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G629" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="G629" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="H629" s="9"/>
       <c r="I629" s="9"/>
@@ -18339,7 +18384,7 @@
         <v>128</v>
       </c>
       <c r="C630" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D630" s="7" t="s">
         <v>616</v>
@@ -18348,10 +18393,10 @@
         <v>82</v>
       </c>
       <c r="F630" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G630" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="G630" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="H630" s="9"/>
       <c r="I630" s="9"/>
@@ -18364,7 +18409,7 @@
         <v>128</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D631" s="7" t="s">
         <v>616</v>
@@ -18373,10 +18418,10 @@
         <v>82</v>
       </c>
       <c r="F631" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G631" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="G631" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="H631" s="9"/>
       <c r="I631" s="9"/>
@@ -18389,7 +18434,7 @@
         <v>128</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D632" s="7" t="s">
         <v>616</v>
@@ -18398,10 +18443,10 @@
         <v>82</v>
       </c>
       <c r="F632" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G632" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="G632" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="H632" s="9"/>
       <c r="I632" s="9"/>
